--- a/updates/characters_database.xlsx
+++ b/updates/characters_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79287e7ba8923218/Desktop/Genshindle Solver/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="11_F25DC773A252ABDACC104848E9D876F05BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F7B2D6B-6C1D-4ADE-A8A6-3BF8EC26A99E}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="11_F25DC773A252ABDACC104848E9D876F05BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9429EFD1-06C9-4A29-8C04-F0C0615A536D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -252,9 +252,6 @@
     <t>Tighnari</t>
   </si>
   <si>
-    <t>Traveler</t>
-  </si>
-  <si>
     <t>Venti</t>
   </si>
   <si>
@@ -346,6 +343,9 @@
   </si>
   <si>
     <t>Sigewinne</t>
+  </si>
+  <si>
+    <t>Sethos</t>
   </si>
 </sst>
 </file>
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -742,13 +742,13 @@
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2" s="4">
         <v>1.2</v>
@@ -759,13 +759,13 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="4">
         <v>3.4</v>
@@ -776,13 +776,13 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E4" s="4">
         <v>2.1</v>
@@ -793,13 +793,13 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -813,10 +813,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="4">
         <v>2.2999999999999998</v>
@@ -824,13 +824,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>2</v>
@@ -850,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" s="4">
         <v>3.6</v>
@@ -861,13 +861,13 @@
         <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -895,13 +895,13 @@
         <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -912,10 +912,10 @@
         <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>2</v>
@@ -929,13 +929,13 @@
         <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E13" s="4">
         <v>4.2</v>
@@ -946,10 +946,10 @@
         <v>23</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>2</v>
@@ -966,10 +966,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="4">
         <v>4.5</v>
@@ -983,10 +983,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -994,16 +994,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17" s="4">
         <v>4.7</v>
@@ -1014,13 +1014,13 @@
         <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E18" s="4">
         <v>3</v>
@@ -1031,7 +1031,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>5</v>
@@ -1048,13 +1048,13 @@
         <v>28</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E20" s="4">
         <v>3.5</v>
@@ -1065,13 +1065,13 @@
         <v>29</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
@@ -1082,13 +1082,13 @@
         <v>30</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E22" s="4">
         <v>1.1000000000000001</v>
@@ -1099,13 +1099,13 @@
         <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E23" s="4">
         <v>3</v>
@@ -1116,13 +1116,13 @@
         <v>32</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" s="4">
         <v>1.5</v>
@@ -1133,13 +1133,13 @@
         <v>33</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E25" s="4">
         <v>3.3</v>
@@ -1150,13 +1150,13 @@
         <v>34</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
@@ -1167,13 +1167,13 @@
         <v>35</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E27" s="4">
         <v>4</v>
@@ -1184,13 +1184,13 @@
         <v>36</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E28" s="4">
         <v>4.2</v>
@@ -1204,10 +1204,10 @@
         <v>3</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E29" s="4">
         <v>4.4000000000000004</v>
@@ -1221,10 +1221,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E30" s="4">
         <v>1.2</v>
@@ -1238,10 +1238,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E31" s="4">
         <v>2.2999999999999998</v>
@@ -1255,7 +1255,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>2</v>
@@ -1269,13 +1269,13 @@
         <v>41</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -1289,10 +1289,10 @@
         <v>6</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E34" s="4">
         <v>1.6</v>
@@ -1303,13 +1303,13 @@
         <v>43</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="E35" s="4">
         <v>1</v>
@@ -1323,10 +1323,10 @@
         <v>6</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="E36" s="4">
         <v>2</v>
@@ -1340,10 +1340,10 @@
         <v>6</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E37" s="4">
         <v>2.6</v>
@@ -1354,13 +1354,13 @@
         <v>46</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E38" s="4">
         <v>3.6</v>
@@ -1377,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
@@ -1394,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="4">
         <v>3.7</v>
@@ -1405,13 +1405,13 @@
         <v>49</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E41" s="4">
         <v>1</v>
@@ -1428,7 +1428,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E42" s="4">
         <v>2.1</v>
@@ -1445,7 +1445,7 @@
         <v>5</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E43" s="4">
         <v>2.7</v>
@@ -1456,13 +1456,13 @@
         <v>52</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="E44" s="4">
         <v>3.2</v>
@@ -1473,13 +1473,13 @@
         <v>53</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E45" s="4">
         <v>1</v>
@@ -1490,13 +1490,13 @@
         <v>54</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E46" s="4">
         <v>4</v>
@@ -1507,13 +1507,13 @@
         <v>55</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E47" s="4">
         <v>4</v>
@@ -1524,10 +1524,10 @@
         <v>56</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>2</v>
@@ -1541,13 +1541,13 @@
         <v>57</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E49" s="4">
         <v>1</v>
@@ -1558,13 +1558,13 @@
         <v>58</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E50" s="4">
         <v>3.2</v>
@@ -1575,13 +1575,13 @@
         <v>59</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E51" s="4">
         <v>4.3</v>
@@ -1592,13 +1592,13 @@
         <v>60</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E52" s="4">
         <v>4.0999999999999996</v>
@@ -1609,13 +1609,13 @@
         <v>61</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E53" s="4">
         <v>3.1</v>
@@ -1629,10 +1629,10 @@
         <v>3</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E54" s="4">
         <v>1</v>
@@ -1643,13 +1643,13 @@
         <v>63</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E55" s="4">
         <v>1</v>
@@ -1663,10 +1663,10 @@
         <v>3</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="E56" s="4">
         <v>1</v>
@@ -1694,13 +1694,13 @@
         <v>65</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E58" s="4">
         <v>1</v>
@@ -1711,10 +1711,10 @@
         <v>66</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>2</v>
@@ -1731,10 +1731,10 @@
         <v>6</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E60" s="4">
         <v>2.1</v>
@@ -1748,10 +1748,10 @@
         <v>6</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E61" s="4">
         <v>2</v>
@@ -1759,152 +1759,152 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E62" s="4">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="E63" s="4">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E64" s="4">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E65" s="4">
-        <v>1</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E66" s="4">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E67" s="4">
-        <v>2.2000000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="E68" s="4">
-        <v>3</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>100</v>
       </c>
       <c r="E69" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E70" s="4">
         <v>1</v>
@@ -1912,16 +1912,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E71" s="4">
         <v>3.3</v>
@@ -1929,16 +1929,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E72" s="4">
         <v>4.0999999999999996</v>
@@ -1946,13 +1946,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>2</v>
@@ -1963,16 +1963,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E74" s="4">
         <v>4.4000000000000004</v>
@@ -1980,13 +1980,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>2</v>
@@ -1997,16 +1997,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E76" s="4">
         <v>1</v>
@@ -2014,16 +2014,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E77" s="4">
         <v>1.1000000000000001</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>6</v>
@@ -2040,7 +2040,7 @@
         <v>5</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E78" s="4">
         <v>2.5</v>
@@ -2048,16 +2048,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E79" s="4">
         <v>1.5</v>
@@ -2082,16 +2082,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E81" s="4">
         <v>2.7</v>
@@ -2099,16 +2099,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E82" s="4">
         <v>2</v>
@@ -2116,13 +2116,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>2</v>
@@ -2133,13 +2133,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>2</v>
